--- a/wikipedia_validation_sheets/Non-small-cell lung carcinoma DISNET VALIDATION.xlsx
+++ b/wikipedia_validation_sheets/Non-small-cell lung carcinoma DISNET VALIDATION.xlsx
@@ -1,31 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gerardo/Documents/1.Doctorado/3_SEMESTRE/PAPER/estructura_disnet/paperLinks/GITLAB/wikipedia_validation_sheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gerardo/Documents/1.Doctorado/3_SEMESTRE/PAPER/estructura_disnet/paperLinks/paperdisnet/wikipedia_validation_sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{D6138D25-27A9-354A-946B-6F333A94F0EB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC8E1F66-CC80-304F-82B7-2E3623B794BE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38520" yWindow="460" windowWidth="20500" windowHeight="21060" xr2:uid="{6F59B31C-20B6-4724-AA72-DC954A626F3B}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20500" windowHeight="7480" xr2:uid="{6F59B31C-20B6-4724-AA72-DC954A626F3B}"/>
   </bookViews>
   <sheets>
     <sheet name="VALIDATION" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="109">
   <si>
     <t>WIKIPEDIA TERMS</t>
   </si>
@@ -289,6 +294,69 @@
   </si>
   <si>
     <t>FPREAL</t>
+  </si>
+  <si>
+    <t>infections</t>
+  </si>
+  <si>
+    <t>Infection</t>
+  </si>
+  <si>
+    <t>[patf]</t>
+  </si>
+  <si>
+    <t>Icterus</t>
+  </si>
+  <si>
+    <t>dna, damage, damages</t>
+  </si>
+  <si>
+    <t>DNA damage</t>
+  </si>
+  <si>
+    <t>[comd]</t>
+  </si>
+  <si>
+    <t>progression</t>
+  </si>
+  <si>
+    <t>Course of illness</t>
+  </si>
+  <si>
+    <t>feeling</t>
+  </si>
+  <si>
+    <t>Emotions</t>
+  </si>
+  <si>
+    <t>[menp]</t>
+  </si>
+  <si>
+    <t>cancer</t>
+  </si>
+  <si>
+    <t>Primary malignant neoplasm</t>
+  </si>
+  <si>
+    <t>[neop]</t>
+  </si>
+  <si>
+    <t>pancoasts, syndrome</t>
+  </si>
+  <si>
+    <t>Pancoast syndrome</t>
+  </si>
+  <si>
+    <t>nsclc</t>
+  </si>
+  <si>
+    <t>Non-small cell lung cancer</t>
+  </si>
+  <si>
+    <t>lung, cancer</t>
+  </si>
+  <si>
+    <t>Primary malignant neoplasm of lung</t>
   </si>
 </sst>
 </file>
@@ -640,7 +708,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -722,26 +790,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -771,7 +821,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1092,53 +1152,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39C16CAD-76C9-4D0D-A518-84FAA97D46DE}">
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="7.83203125" customWidth="1"/>
     <col min="6" max="7" width="9.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="32" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
     </row>
     <row r="2" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="54"/>
-      <c r="E2" s="50" t="s">
+      <c r="D2" s="48"/>
+      <c r="E2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="55" t="s">
+      <c r="F2" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="57"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="51"/>
     </row>
     <row r="3" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
@@ -2007,204 +2067,499 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>30</v>
       </c>
-      <c r="B33" s="43" t="s">
+      <c r="B33" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C33" s="44" t="s">
+      <c r="C33" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="D33" s="44" t="s">
+      <c r="D33" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E33" s="45" t="b">
+      <c r="E33" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="F33" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="G33" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="H33" s="48" t="s">
-        <v>28</v>
-      </c>
-      <c r="I33" s="49" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="23"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="25"/>
+      <c r="F33" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H33" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I33" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>31</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="E34" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="F34" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H34" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="I34" s="22" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B35" s="26" t="s">
+      <c r="A35">
+        <v>32</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="E35" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="F35" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H35" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="I35" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>33</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E36" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F36" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H36" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I36" s="22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>34</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="E37" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F37" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H37" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I37" s="22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>35</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="E38" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F38" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H38" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I38" s="22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>36</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E39" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F39" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H39" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I39" s="22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>37</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E40" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F40" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H40" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I40" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>38</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E41" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F41" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H41" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I41" s="22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>39</v>
+      </c>
+      <c r="B42" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E42" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F42" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H42" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I42" s="22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="23"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="25"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B44" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="G35" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="H35" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="I35" s="31" t="s">
+      <c r="C44" s="27"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="H44" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="I44" s="31" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B36" s="32" t="s">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B45" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="G36" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="H36" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="I36" s="37" t="s">
+      <c r="C45" s="33"/>
+      <c r="D45" s="33"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="H45" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I45" s="37" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B37" s="32" t="s">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B46" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="G37" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="H37" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="I37" s="37" t="s">
+      <c r="C46" s="33"/>
+      <c r="D46" s="33"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="H46" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I46" s="37" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B38" s="32" t="s">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B47" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="G38" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="H38" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="I38" s="37" t="s">
+      <c r="C47" s="33"/>
+      <c r="D47" s="33"/>
+      <c r="E47" s="33"/>
+      <c r="F47" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="H47" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I47" s="37" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B39" s="32" t="s">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B48" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="C39" s="33"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="G39" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="H39" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="I39" s="37" t="s">
+      <c r="C48" s="33"/>
+      <c r="D48" s="33"/>
+      <c r="E48" s="33"/>
+      <c r="F48" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="H48" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I48" s="37" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B40" s="32" t="s">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B49" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="C40" s="33"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="33"/>
-      <c r="F40" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="G40" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="H40" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="I40" s="37" t="s">
+      <c r="C49" s="33"/>
+      <c r="D49" s="33"/>
+      <c r="E49" s="33"/>
+      <c r="F49" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="H49" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I49" s="37" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B41" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="C41" s="33"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="G41" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="H41" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="I41" s="37" t="s">
+    <row r="50" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="C50" s="39"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="39"/>
+      <c r="F50" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="H50" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="I50" s="42" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="C42" s="39"/>
-      <c r="D42" s="39"/>
-      <c r="E42" s="39"/>
-      <c r="F42" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="G42" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="H42" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="I42" s="42" t="s">
-        <v>86</v>
-      </c>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B52" s="43"/>
+      <c r="C52" s="43"/>
+      <c r="D52" s="43"/>
+      <c r="E52" s="43"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B53" s="43"/>
+      <c r="C53" s="43"/>
+      <c r="D53" s="43"/>
+      <c r="E53" s="43"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B54" s="43"/>
+      <c r="C54" s="43"/>
+      <c r="D54" s="43"/>
+      <c r="E54" s="43"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B55" s="43"/>
+      <c r="C55" s="43"/>
+      <c r="D55" s="43"/>
+      <c r="E55" s="43"/>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B56" s="43"/>
+      <c r="C56" s="43"/>
+      <c r="D56" s="43"/>
+      <c r="E56" s="43"/>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B57" s="43"/>
+      <c r="C57" s="43"/>
+      <c r="D57" s="43"/>
+      <c r="E57" s="43"/>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B58" s="43"/>
+      <c r="C58" s="43"/>
+      <c r="D58" s="43"/>
+      <c r="E58" s="43"/>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B59" s="43"/>
+      <c r="C59" s="43"/>
+      <c r="D59" s="43"/>
+      <c r="E59" s="43"/>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B60" s="43"/>
+      <c r="C60" s="43"/>
+      <c r="D60" s="43"/>
+      <c r="E60" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2212,8 +2567,11 @@
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:I2"/>
   </mergeCells>
-  <conditionalFormatting sqref="C4:C33">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  <conditionalFormatting sqref="C4:C32">
+    <cfRule type="duplicateValues" dxfId="1" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33:C42">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
